--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1361,6 +1361,17 @@
         <v>0.175961336415213</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.625332950081441</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.177390208026896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -27,9 +27,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -66,7 +64,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,6 +1370,17 @@
         <v>0.177390208026896</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.500641946919613</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.102185333053162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1381,6 +1381,17 @@
         <v>0.102185333053162</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.135766982849478</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0528682496322757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1392,6 +1392,17 @@
         <v>0.0528682496322757</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1100124556865</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0714225677663375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1403,6 +1403,17 @@
         <v>0.0714225677663375</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.193063140749257</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0714225677663375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1414,6 +1414,17 @@
         <v>0.0714225677663375</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.223799942512216</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0775162849338096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1425,6 +1425,39 @@
         <v>0.0775162849338096</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.231053709604005</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0884910594688836</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.24505006827492</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0925520379308145</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.203326505841299</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.124402015606064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1458,6 +1458,28 @@
         <v>0.124402015606064</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.266329085116067</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.130100142453171</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.203326505841299</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.136818829332596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1480,6 +1480,17 @@
         <v>0.136818829332596</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0771885905022</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.142516956179704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1491,6 +1491,28 @@
         <v>0.142516956179704</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0771885905022</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.163353390172857</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0771885905022</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.142516956179704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/over_five_combo.xlsx
+++ b/over_five_combo.xlsx
@@ -1513,6 +1513,39 @@
         <v>0.142516956179704</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0671749355181308</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.140943592796547</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.116275982400243</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.104947589990007</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.153997875891367</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.256181829779091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
